--- a/Log/select-menu-file.xlsx
+++ b/Log/select-menu-file.xlsx
@@ -400,6 +400,9 @@
       <c r="B2" t="b">
         <v>1</v>
       </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Groupware</t>
